--- a/somas_total_2013_2024.xlsx
+++ b/somas_total_2013_2024.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>soma_total</t>
+          <t>soma_total_em_KT</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="n">
-        <v>6219039.459999998</v>
+        <v>6219.04</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2014</v>
       </c>
       <c r="B3" t="n">
-        <v>5888181.196</v>
+        <v>5888.18</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="n">
-        <v>5750715.95</v>
+        <v>5750.72</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>5452934.86</v>
+        <v>5452.93</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>5620564.34</v>
+        <v>5620.56</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>5688310.14</v>
+        <v>5688.31</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="n">
-        <v>21835.958</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>25228.852</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>2021</v>
       </c>
       <c r="B10" t="n">
-        <v>3421379.44</v>
+        <v>3421.38</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>3452796.87</v>
+        <v>3452.8</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>3515678.96</v>
+        <v>3515.68</v>
       </c>
     </row>
   </sheetData>

--- a/somas_total_2013_2024.xlsx
+++ b/somas_total_2013_2024.xlsx
@@ -498,7 +498,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="n">
-        <v>27.47</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>30.95</v>
+        <v>25.23</v>
       </c>
     </row>
     <row r="10">

--- a/somas_total_2013_2024.xlsx
+++ b/somas_total_2013_2024.xlsx
@@ -498,7 +498,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="n">
-        <v>21.84</v>
+        <v>5629.08</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>25.23</v>
+        <v>5722.93</v>
       </c>
     </row>
     <row r="10">

--- a/somas_total_2013_2024.xlsx
+++ b/somas_total_2013_2024.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>soma_total_em_KT</t>
+          <t>soma_total</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="n">
-        <v>6219.04</v>
+        <v>6219039.46</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2014</v>
       </c>
       <c r="B3" t="n">
-        <v>5888.18</v>
+        <v>5888181.2</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="n">
-        <v>5750.72</v>
+        <v>5750715.95</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>5452.93</v>
+        <v>5452934.86</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>5620.56</v>
+        <v>5620564.34</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>5688.31</v>
+        <v>5688310.14</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="n">
-        <v>5629.08</v>
+        <v>5629081.1</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>5722.93</v>
+        <v>5722927</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>2021</v>
       </c>
       <c r="B10" t="n">
-        <v>3421.38</v>
+        <v>3421379.44</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>3452.8</v>
+        <v>3452796.87</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>3515.68</v>
+        <v>3515678.96</v>
       </c>
     </row>
   </sheetData>

--- a/somas_total_2013_2024.xlsx
+++ b/somas_total_2013_2024.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>soma_total</t>
+          <t>soma_total_em_KT</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="n">
-        <v>6219039.46</v>
+        <v>6219.04</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2014</v>
       </c>
       <c r="B3" t="n">
-        <v>5888181.2</v>
+        <v>5888.18</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="n">
-        <v>5750715.95</v>
+        <v>5750.72</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>5452934.86</v>
+        <v>5452.93</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>5620564.34</v>
+        <v>5620.56</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>5688310.14</v>
+        <v>5688.31</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="n">
-        <v>5629081.1</v>
+        <v>5629.08</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>5722927</v>
+        <v>5722.93</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>2021</v>
       </c>
       <c r="B10" t="n">
-        <v>3421379.44</v>
+        <v>3421.38</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>3452796.87</v>
+        <v>3452.8</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>3515678.96</v>
+        <v>3515.68</v>
       </c>
     </row>
   </sheetData>
